--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c88eaab53a93840d/桌面/vick/EDU_Tech/V-MATHER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DB89CEA9-D9E0-490C-A5B4-2120AB6725D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79346712-C23E-4BC4-8C22-1909E0F8B413}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{DB89CEA9-D9E0-490C-A5B4-2120AB6725D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A2DF1C6-FE0D-43E9-BC58-267D17F2714B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1285D6C-DBFB-4EFA-8F00-5DE7F6996E67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>5 + 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,311 @@
   </si>
   <si>
     <t>十萬以內的加法</t>
+  </si>
+  <si>
+    <t>17 + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二位數的加法（不進位）</t>
+  </si>
+  <si>
+    <t>10 + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 + 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 + 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 + 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 + 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 + 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 以內的加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二位數的加法（有進位）</t>
+  </si>
+  <si>
+    <t>60 + 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 + 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 + 49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 + 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 + 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 + 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 + 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 + 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 + 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 + 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 + 71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69 + 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 + 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 + 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 + 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 + 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 + 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53 + 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十萬以內的加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443 + 208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448 + 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49 + 873</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 + 846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>441 + 506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189 + 267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>534 + 332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58 + 542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451 + 449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>551 + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三位數的加法（不進位）</t>
+  </si>
+  <si>
+    <t>三位數的加法（有進位）</t>
+  </si>
+  <si>
+    <t>565 + 4703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6014 + 2874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1451 + 5117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2118 + 5604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8038 + 1921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2279 + 4139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4722 + 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 + 4139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5682 + 1995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 + 7025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四位數的加法</t>
+  </si>
+  <si>
+    <t>76973 + 7347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40435 + 52183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25904 + 35490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6748 + 30412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38091 + 34572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86755 + 329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30695 + 39861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13128 + 24227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52252 + 14752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54638 + 19691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950000 + 79000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390000 + 38000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>730000 + 36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610000 + 45000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000 + 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000 + 360000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64000 + 59000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000 + 360000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76000 + 510000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19000 + 840000</t>
+  </si>
+  <si>
+    <t>大數加法</t>
   </si>
 </sst>
 </file>
@@ -138,6 +443,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D118D-B4D1-4BCD-8C95-E18329DE81BB}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -591,8 +900,731 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>